--- a/Assets/StreamingAssets/languages/zh/1.xlsx
+++ b/Assets/StreamingAssets/languages/zh/1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>moveTo(-540,y)</t>
+  </si>
+  <si>
+    <t>End of story</t>
   </si>
 </sst>
 </file>
@@ -793,6 +796,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1045,13 +1055,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="10.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="30.2777777777778" customWidth="1"/>
@@ -1216,6 +1226,11 @@
       <c r="K5">
         <f>IF(F4&lt;&gt;"",F4,K4)</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/languages/zh/1.xlsx
+++ b/Assets/StreamingAssets/languages/zh/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>CharacterImg（立绘）</t>
-  </si>
-  <si>
-    <t>LastBGImg(最后背景图片）</t>
-  </si>
-  <si>
-    <t>LastBGMusic（最后背景音乐）</t>
   </si>
   <si>
     <t>Annie</t>
@@ -1055,10 +1049,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1071,7 +1065,7 @@
     <col min="9" max="9" width="21.9444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="104.4" spans="1:11">
+    <row r="1" ht="104.4" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,23 +1092,17 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1126,24 +1114,24 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1152,29 +1140,21 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="J3">
-        <f>IF(E2&lt;&gt;"",E2,J2)</f>
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <f>IF(F2&lt;&gt;"",F2,K2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1186,29 +1166,24 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
-      </c>
-      <c r="J4">
-        <f>IF(E3&lt;&gt;"",E3,J3)</f>
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <f>IF(F3&lt;&gt;"",F3,K3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1217,20 +1192,15 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5">
-        <f>IF(E4&lt;&gt;"",E4,J4)</f>
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <f>IF(F4&lt;&gt;"",F4,K4)</f>
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/languages/zh/1.xlsx
+++ b/Assets/StreamingAssets/languages/zh/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Bella</t>
   </si>
   <si>
-    <t>中文</t>
-  </si>
-  <si>
     <t>很高兴见到你。</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>我也是。</t>
-  </si>
-  <si>
-    <t>日语</t>
   </si>
   <si>
     <t>moveTo(-540,y)</t>
@@ -790,13 +784,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1052,7 +1039,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1104,6 +1091,9 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -1130,10 +1120,13 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
@@ -1151,7 +1144,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1160,13 +1153,13 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -1177,22 +1170,23 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D5"/>
       <c r="E5">
         <v>4</v>
       </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -1200,7 +1194,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/languages/zh/1.xlsx
+++ b/Assets/StreamingAssets/languages/zh/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Annie</t>
   </si>
   <si>
-    <t>你好，[Name]</t>
+    <t>你好，[Name]1111111</t>
   </si>
   <si>
     <t>appearAt(0,-1)</t>
@@ -88,7 +88,19 @@
     <t>moveTo(-540,y)</t>
   </si>
   <si>
-    <t>End of story</t>
+    <t>Choice</t>
+  </si>
+  <si>
+    <t>甲
+乙
+丙
+丁</t>
+  </si>
+  <si>
+    <t>1-1-1
+1-1-2
+1-1-3
+1-1-4</t>
   </si>
 </sst>
 </file>
@@ -718,11 +730,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1039,7 +1054,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1175,7 +1190,6 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5"/>
       <c r="E5">
         <v>4</v>
       </c>
@@ -1192,9 +1206,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" ht="57.6" spans="1:3">
       <c r="A6" t="s">
         <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/languages/zh/1.xlsx
+++ b/Assets/StreamingAssets/languages/zh/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Annie</t>
   </si>
   <si>
-    <t>你好，[Name]1111111</t>
+    <t>我们来玩个游戏吧</t>
   </si>
   <si>
     <t>appearAt(0,-1)</t>
@@ -70,37 +70,16 @@
     <t>[Name]</t>
   </si>
   <si>
-    <t>你好，Annie。</t>
+    <t>好！</t>
   </si>
   <si>
     <t>Bella</t>
   </si>
   <si>
-    <t>很高兴见到你。</t>
-  </si>
-  <si>
-    <t>moveTo(540,y)</t>
-  </si>
-  <si>
-    <t>我也是。</t>
-  </si>
-  <si>
-    <t>moveTo(-540,y)</t>
-  </si>
-  <si>
-    <t>Choice</t>
-  </si>
-  <si>
-    <t>甲
-乙
-丙
-丁</t>
-  </si>
-  <si>
-    <t>1-1-1
-1-1-2
-1-1-3
-1-1-4</t>
+    <t>game</t>
+  </si>
+  <si>
+    <t>MiniGame</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1033,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1125,7 +1104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1138,84 +1117,24 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
+      <c r="D4">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="57.6" spans="1:3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="6" spans="2:3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StreamingAssets/languages/zh/1.xlsx
+++ b/Assets/StreamingAssets/languages/zh/1.xlsx
@@ -709,14 +709,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1030,13 +1027,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="10.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="30.2777777777778" customWidth="1"/>
@@ -1131,10 +1128,6 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StreamingAssets/languages/zh/1.xlsx
+++ b/Assets/StreamingAssets/languages/zh/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Annie</t>
   </si>
   <si>
-    <t>我们来玩个游戏吧</t>
+    <t>你好，[Name]1111111</t>
   </si>
   <si>
     <t>appearAt(0,-1)</t>
@@ -70,16 +70,37 @@
     <t>[Name]</t>
   </si>
   <si>
-    <t>好！</t>
+    <t>你好，Annie。</t>
   </si>
   <si>
     <t>Bella</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>MiniGame</t>
+    <t>很高兴见到你。</t>
+  </si>
+  <si>
+    <t>moveTo(540,y)</t>
+  </si>
+  <si>
+    <t>我也是。</t>
+  </si>
+  <si>
+    <t>moveTo(-540,y)</t>
+  </si>
+  <si>
+    <t>Choice</t>
+  </si>
+  <si>
+    <t>甲
+乙
+丙
+丁</t>
+  </si>
+  <si>
+    <t>1-1-1
+1-1-2
+1-1-3
+1-1-4</t>
   </si>
 </sst>
 </file>
@@ -709,11 +730,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1027,13 +1051,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="10.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="30.2777777777778" customWidth="1"/>
@@ -1101,7 +1125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1114,19 +1138,83 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="57.6" spans="1:3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/languages/zh/1.xlsx
+++ b/Assets/StreamingAssets/languages/zh/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -43,64 +43,68 @@
     <t>Vocal（人物语言）</t>
   </si>
   <si>
-    <t>BGbgImg（背景图片）</t>
+    <t>BGImg（背景图片）</t>
   </si>
   <si>
     <t>BGM</t>
   </si>
   <si>
-    <t>CharacterNum（人物编号）</t>
-  </si>
-  <si>
-    <t>Action（出现位置）</t>
-  </si>
-  <si>
-    <t>CharacterImg（立绘）</t>
+    <t>CharacterCommands（立绘编号，立绘执行操作，立绘位置，表情）</t>
+  </si>
+  <si>
+    <t>安妮</t>
   </si>
   <si>
     <t>Annie</t>
   </si>
   <si>
-    <t>你好，[Name]1111111</t>
-  </si>
-  <si>
-    <t>appearAt(0,-1)</t>
+    <t>Annie
+appearAt
+0
+smile</t>
+  </si>
+  <si>
+    <t>贝拉</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Bella
+appearAt
+0.2
+smile</t>
+  </si>
+  <si>
+    <t>爱丽丝</t>
+  </si>
+  <si>
+    <t>Alice
+appearAt
+0.4
+smile</t>
+  </si>
+  <si>
+    <t>鲍勃</t>
+  </si>
+  <si>
+    <t>Bob
+appearAt
+smile
+0.6</t>
   </si>
   <si>
     <t>[Name]</t>
   </si>
   <si>
-    <t>你好，Annie。</t>
-  </si>
-  <si>
-    <t>Bella</t>
-  </si>
-  <si>
-    <t>很高兴见到你。</t>
-  </si>
-  <si>
-    <t>moveTo(540,y)</t>
-  </si>
-  <si>
-    <t>我也是。</t>
-  </si>
-  <si>
-    <t>moveTo(-540,y)</t>
-  </si>
-  <si>
-    <t>Choice</t>
-  </si>
-  <si>
-    <t>甲
-乙
-丙
-丁</t>
-  </si>
-  <si>
-    <t>1-1-1
-1-1-2
-1-1-3
-1-1-4</t>
+    <t>Annie
+disappear;
+Bella
+disappear;
+Alice
+disappear;
+Bob
+disappear</t>
   </si>
 </sst>
 </file>
@@ -1051,23 +1055,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="30.2777777777778" customWidth="1"/>
     <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.8240740740741" customWidth="1"/>
-    <col min="8" max="8" width="18.1296296296296" customWidth="1"/>
-    <col min="9" max="9" width="21.9444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.9444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="104.4" spans="1:9">
+    <row r="1" ht="104.4" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,22 +1091,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" ht="57.6" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1115,25 +1111,19 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" spans="1:7">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1144,25 +1134,19 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" ht="57.6" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1170,25 +1154,19 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" ht="57.6" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1196,25 +1174,19 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="115.2" spans="1:7">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="57.6" spans="1:3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
